--- a/YETI/NorthBound/Template.xlsx
+++ b/YETI/NorthBound/Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto Mendoza\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Molina\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ECD835-51D9-408E-804D-94359E2EA7B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC59F102-58E0-41A9-AAA9-9FE57FD33259}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-870" windowWidth="21840" windowHeight="13140" xr2:uid="{DC9CFACF-B485-5543-9371-3D2ED564A96A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC9CFACF-B485-5543-9371-3D2ED564A96A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t xml:space="preserve">Invoice Date </t>
   </si>
@@ -178,87 +178,6 @@
   </si>
   <si>
     <t>BG 146838</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
   </si>
   <si>
     <t>123t</t>
@@ -272,16 +191,9 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -294,18 +206,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -320,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -332,14 +238,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,15 +563,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8589EDC7-8128-B54E-B66B-24A14E04F61E}">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="4"/>
+    <col min="3" max="3" width="11" style="7"/>
     <col min="5" max="5" width="29.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.375" bestFit="1" customWidth="1"/>
@@ -676,194 +586,194 @@
     <col min="24" max="24" width="13.375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.125" customWidth="1"/>
     <col min="26" max="26" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5" style="6" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8">
+    <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>43701</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="9">
+        <v>711125</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="4">
+        <v>43701</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <v>21070110001</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2">
+        <v>1728</v>
+      </c>
+      <c r="Q2">
+        <v>11.02</v>
+      </c>
+      <c r="R2">
+        <v>19042.559999999998</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2">
+        <v>2.54</v>
+      </c>
+      <c r="W2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>13</v>
+      <c r="X2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2">
+        <v>4389.12</v>
+      </c>
+      <c r="Z2">
+        <v>23431.679999999997</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>19272.3</v>
+      </c>
+      <c r="AB2">
+        <v>150491.51999999999</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>43701</v>
+        <v>43702</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="5">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9">
         <v>711125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
@@ -881,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="J3" s="4">
-        <v>43701</v>
+        <v>43702</v>
       </c>
       <c r="K3" t="s">
         <v>36</v>
@@ -899,13 +809,13 @@
         <v>28</v>
       </c>
       <c r="P3">
-        <v>1728</v>
+        <v>5472</v>
       </c>
       <c r="Q3">
         <v>11.02</v>
       </c>
       <c r="R3">
-        <v>19042.559999999998</v>
+        <v>60301.439999999995</v>
       </c>
       <c r="S3" t="s">
         <v>39</v>
@@ -920,18 +830,18 @@
         <v>2.54</v>
       </c>
       <c r="W3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="X3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="Y3">
-        <v>4389.12</v>
+        <v>13898.880000000001</v>
       </c>
       <c r="Z3">
-        <v>23431.679999999997</v>
-      </c>
-      <c r="AA3" s="7">
+        <v>74200.319999999992</v>
+      </c>
+      <c r="AA3" s="6">
         <v>19272.3</v>
       </c>
       <c r="AB3">
@@ -940,16 +850,16 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43702</v>
+        <v>43703</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="5">
-        <v>711126</v>
+        <v>47</v>
+      </c>
+      <c r="C4" s="9">
+        <v>711125</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -967,16 +877,16 @@
         <v>31</v>
       </c>
       <c r="J4" s="4">
-        <v>43702</v>
+        <v>43703</v>
       </c>
       <c r="K4" t="s">
         <v>36</v>
       </c>
       <c r="L4">
-        <v>21070110001</v>
+        <v>21070090001</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
         <v>38</v>
@@ -985,133 +895,47 @@
         <v>28</v>
       </c>
       <c r="P4">
-        <v>5472</v>
+        <v>6048</v>
       </c>
       <c r="Q4">
-        <v>11.02</v>
+        <v>6.89</v>
       </c>
       <c r="R4">
-        <v>60301.439999999995</v>
+        <v>41670.720000000001</v>
       </c>
       <c r="S4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="T4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U4" t="s">
         <v>41</v>
       </c>
       <c r="V4">
-        <v>2.54</v>
+        <v>1.85</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="Y4">
-        <v>13898.880000000001</v>
+        <v>11188.800000000001</v>
       </c>
       <c r="Z4">
-        <v>74200.319999999992</v>
-      </c>
-      <c r="AA4" s="7">
+        <v>52859.520000000004</v>
+      </c>
+      <c r="AA4" s="6">
         <v>19272.3</v>
       </c>
       <c r="AB4">
         <v>150491.51999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43703</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="5">
-        <v>711127</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="4">
-        <v>43703</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5">
-        <v>21070090001</v>
-      </c>
-      <c r="M5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5">
-        <v>6048</v>
-      </c>
-      <c r="Q5">
-        <v>6.89</v>
-      </c>
-      <c r="R5">
-        <v>41670.720000000001</v>
-      </c>
-      <c r="S5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" t="s">
-        <v>41</v>
-      </c>
-      <c r="V5">
-        <v>1.85</v>
-      </c>
-      <c r="W5" t="s">
-        <v>76</v>
-      </c>
-      <c r="X5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y5">
-        <v>11188.800000000001</v>
-      </c>
-      <c r="Z5">
-        <v>52859.520000000004</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>19272.3</v>
-      </c>
-      <c r="AB5">
-        <v>150491.51999999999</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/YETI/NorthBound/Template.xlsx
+++ b/YETI/NorthBound/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto Mendoza\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ECD835-51D9-408E-804D-94359E2EA7B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9A7CE9-42DE-4FEA-93B3-96636A22B2AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-870" windowWidth="21840" windowHeight="13140" xr2:uid="{DC9CFACF-B485-5543-9371-3D2ED564A96A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC9CFACF-B485-5543-9371-3D2ED564A96A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t xml:space="preserve">Invoice Date </t>
   </si>
@@ -180,88 +180,16 @@
     <t>BG 146838</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>123t</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 711125</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 711126</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 711127</t>
   </si>
 </sst>
 </file>
@@ -272,16 +200,9 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -294,18 +215,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -332,13 +247,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -654,216 +569,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8589EDC7-8128-B54E-B66B-24A14E04F61E}">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="4"/>
+    <col min="3" max="3" width="11" style="8"/>
     <col min="5" max="5" width="29.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="4"/>
-    <col min="12" max="12" width="19.5" customWidth="1"/>
-    <col min="14" max="14" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.5" customWidth="1"/>
     <col min="19" max="19" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" style="8"/>
     <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.125" customWidth="1"/>
     <col min="26" max="26" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5" style="6" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8">
+    <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>43701</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="4">
+        <v>43701</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="8">
+        <v>21070110001</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2">
+        <v>1728</v>
+      </c>
+      <c r="Q2">
+        <v>11.02</v>
+      </c>
+      <c r="R2">
+        <v>19042.559999999998</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2">
+        <v>2.54</v>
+      </c>
+      <c r="W2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>13</v>
+      <c r="X2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2">
+        <v>4389.12</v>
+      </c>
+      <c r="Z2">
+        <v>23431.679999999997</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>19272.3</v>
+      </c>
+      <c r="AB2">
+        <v>150491.51999999999</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>43701</v>
+        <v>43702</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="5">
-        <v>711125</v>
+        <v>45</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
@@ -881,36 +798,36 @@
         <v>31</v>
       </c>
       <c r="J3" s="4">
-        <v>43701</v>
+        <v>43702</v>
       </c>
       <c r="K3" t="s">
         <v>36</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="8">
         <v>21070110001</v>
       </c>
       <c r="M3" t="s">
         <v>37</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
       </c>
       <c r="P3">
-        <v>1728</v>
+        <v>5472</v>
       </c>
       <c r="Q3">
         <v>11.02</v>
       </c>
       <c r="R3">
-        <v>19042.559999999998</v>
+        <v>60301.439999999995</v>
       </c>
       <c r="S3" t="s">
         <v>39</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="8" t="s">
         <v>40</v>
       </c>
       <c r="U3" t="s">
@@ -920,18 +837,18 @@
         <v>2.54</v>
       </c>
       <c r="W3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="X3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="Y3">
-        <v>4389.12</v>
+        <v>13898.880000000001</v>
       </c>
       <c r="Z3">
-        <v>23431.679999999997</v>
-      </c>
-      <c r="AA3" s="7">
+        <v>74200.319999999992</v>
+      </c>
+      <c r="AA3" s="6">
         <v>19272.3</v>
       </c>
       <c r="AB3">
@@ -940,16 +857,16 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43702</v>
+        <v>43703</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="5">
-        <v>711126</v>
+        <v>47</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -967,151 +884,65 @@
         <v>31</v>
       </c>
       <c r="J4" s="4">
-        <v>43702</v>
+        <v>43703</v>
       </c>
       <c r="K4" t="s">
         <v>36</v>
       </c>
-      <c r="L4">
-        <v>21070110001</v>
+      <c r="L4" s="8">
+        <v>21070090001</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
       </c>
       <c r="P4">
-        <v>5472</v>
+        <v>6048</v>
       </c>
       <c r="Q4">
-        <v>11.02</v>
+        <v>6.89</v>
       </c>
       <c r="R4">
-        <v>60301.439999999995</v>
+        <v>41670.720000000001</v>
       </c>
       <c r="S4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="U4" t="s">
         <v>41</v>
       </c>
       <c r="V4">
-        <v>2.54</v>
+        <v>1.85</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="Y4">
-        <v>13898.880000000001</v>
+        <v>11188.800000000001</v>
       </c>
       <c r="Z4">
-        <v>74200.319999999992</v>
-      </c>
-      <c r="AA4" s="7">
+        <v>52859.520000000004</v>
+      </c>
+      <c r="AA4" s="6">
         <v>19272.3</v>
       </c>
       <c r="AB4">
         <v>150491.51999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43703</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="5">
-        <v>711127</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="4">
-        <v>43703</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5">
-        <v>21070090001</v>
-      </c>
-      <c r="M5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5">
-        <v>6048</v>
-      </c>
-      <c r="Q5">
-        <v>6.89</v>
-      </c>
-      <c r="R5">
-        <v>41670.720000000001</v>
-      </c>
-      <c r="S5" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" t="s">
-        <v>41</v>
-      </c>
-      <c r="V5">
-        <v>1.85</v>
-      </c>
-      <c r="W5" t="s">
-        <v>76</v>
-      </c>
-      <c r="X5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y5">
-        <v>11188.800000000001</v>
-      </c>
-      <c r="Z5">
-        <v>52859.520000000004</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>19272.3</v>
-      </c>
-      <c r="AB5">
-        <v>150491.51999999999</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
